--- a/C++辞書.xlsx
+++ b/C++辞書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\studyNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A30D4A-367A-4B3F-AD97-E4609BE7425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDB7F1-0DE3-4221-A710-133C7020B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="纏め" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <sheet name="抽象クラス" sheetId="10" r:id="rId10"/>
     <sheet name="テンプレート" sheetId="12" r:id="rId11"/>
     <sheet name="異常系処理" sheetId="13" r:id="rId12"/>
-    <sheet name="LINQ" sheetId="14" r:id="rId13"/>
+    <sheet name="ストレージクラス" sheetId="15" r:id="rId13"/>
+    <sheet name="今の時間取得" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId15"/>
+    <sheet name="LINQ" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="804">
   <si>
     <t>中国語</t>
     <rPh sb="0" eb="3">
@@ -16480,6 +16483,119 @@
   </si>
   <si>
     <t>声明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存储类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■externのソース例と実行結果：</t>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>globals.h</t>
+  </si>
+  <si>
+    <t>globals.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.cpp</t>
+  </si>
+  <si>
+    <t>実行結果：</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■mutableのソース例と実行結果：</t>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■thread_localのソース例と実行結果：</t>
+    <rPh sb="17" eb="18">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ソース例：</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■実行結果：</t>
+    <rPh sb="1" eb="5">
+      <t>ジッコウケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16881,17 +16997,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -16899,7 +17012,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18061,6 +18177,1229 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>153493</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB04A7F-BDA0-BBD8-CCEC-69697AAA47BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="7830643" cy="5334744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EDF70C-C067-3427-4246-6DF70A8AB153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="249555" y="1817370"/>
+          <a:ext cx="7532370" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>220981</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE508745-10F4-46D7-DADE-654A54929BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8145781" y="1779270"/>
+          <a:ext cx="1750694" cy="392430"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69905"/>
+            <a:gd name="adj2" fmla="val 34862"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C++11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以降から廃棄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1659</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>54337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306803B6-A2C3-9182-B0BB-C0DDBCE3A056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="6400801"/>
+          <a:ext cx="11888859" cy="7133316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1659</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>54336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892173A1-138F-A547-2213-AA63BC8A14DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="13944600"/>
+          <a:ext cx="11888859" cy="7133316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1659</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>54336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB61389-0039-1029-615F-CB00CE556D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="21488400"/>
+          <a:ext cx="11888859" cy="7133316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>16046</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>133056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1F10AB-7040-055A-DA94-2DCD00B57D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="29032200"/>
+          <a:ext cx="9182906" cy="4718391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D364DE-2164-4803-AEB5-525A38FABC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="7239000"/>
+          <a:ext cx="1724025" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671922A4-54D8-4AC3-9602-DFD50B4C2693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3550921" y="7010400"/>
+          <a:ext cx="1775459" cy="401955"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69905"/>
+            <a:gd name="adj2" fmla="val 34862"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グローバル変数宣言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>226694</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554D8BAF-A591-4F89-938F-64EAA3A0AC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="14718030"/>
+          <a:ext cx="1779269" cy="394335"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69905"/>
+            <a:gd name="adj2" fmla="val 34862"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グローバル変数初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3FD238-6D95-40F4-A5F1-812724CE3134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1443990" y="14935200"/>
+          <a:ext cx="1613535" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>245744</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D4251F-CCD3-473E-93C7-805129384DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6888480" y="22690455"/>
+          <a:ext cx="1777364" cy="379095"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69905"/>
+            <a:gd name="adj2" fmla="val 34862"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グローバル変数の値出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>163831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7385EF8-AF78-4BA4-A056-0D628FD94D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="22795231"/>
+          <a:ext cx="4743450" cy="493394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1659</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>58147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B521C320-4078-FA13-F746-D73846F3CF2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="34518601"/>
+          <a:ext cx="11888859" cy="7133316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1659</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>54337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D4D18F-12F7-F828-0570-33443D5E52C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="42062401"/>
+          <a:ext cx="11888859" cy="7133316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>16046</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>140676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00874513-7A7D-8941-EA13-3CC34B854247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="49606200"/>
+          <a:ext cx="9182906" cy="4718391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D51EA62-1A07-5791-34C6-27932AFA788E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="50269140"/>
+          <a:ext cx="1352550" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1659</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>50526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF4385A-4485-6191-BECC-B2249D0B8A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="55092600"/>
+          <a:ext cx="11888859" cy="7133316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A308234-E246-9DD6-A98B-E41F4497913E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5227320" y="57912000"/>
+          <a:ext cx="2840355" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の値は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各スレッドごとに独立した</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19856</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>146391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97C5276-FE44-8862-E572-32980E2F3359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="62636400"/>
+          <a:ext cx="9182906" cy="4718391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>93355</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF30DAAB-BBD6-4ADC-A2E7-231A66D2C1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="457200"/>
+          <a:ext cx="13714105" cy="8230749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>194360</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>186497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3A134-91D9-5960-6ECD-6F4630208A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="9144000"/>
+          <a:ext cx="10595660" cy="5444297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18324,11 +19663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18766,6 +20105,37 @@
         <v>783</v>
       </c>
       <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>800</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -18781,6 +20151,7 @@
     <hyperlink ref="B36" location="テンプレート!A1" display="テンプレート" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B40" location="異常系処理!A1" display="異常系処理" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A42" location="LINQ!A1" display="LINQ" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B44" location="ストレージクラス!A1" display="ストレージクラス" xr:uid="{2F3DF879-AD76-4F3F-B88B-4DFC38AB66C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22911,357 +24282,331 @@
       </c>
     </row>
     <row r="80" spans="1:19">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="45" t="s">
         <v>693</v>
       </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46" t="s">
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45" t="s">
         <v>694</v>
       </c>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="42" t="s">
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="47" t="s">
         <v>695</v>
       </c>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42" t="s">
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47" t="s">
         <v>724</v>
       </c>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="47" t="s">
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="43" t="s">
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="44" t="s">
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
     </row>
     <row r="82" spans="2:19">
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="45" t="s">
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="43" t="s">
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="44" t="s">
         <v>713</v>
       </c>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="44" t="s">
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="44"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
     </row>
     <row r="83" spans="2:19">
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="45" t="s">
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="43" t="s">
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="44" t="s">
         <v>714</v>
       </c>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="44" t="s">
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="48"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="45" t="s">
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="42" t="s">
         <v>700</v>
       </c>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="43" t="s">
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="44" t="s">
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="44"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="48"/>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="44" t="s">
         <v>708</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="45" t="s">
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="42" t="s">
         <v>701</v>
       </c>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="43" t="s">
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="44" t="s">
         <v>716</v>
       </c>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="44" t="s">
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="48" t="s">
         <v>725</v>
       </c>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="44"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="45" t="s">
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="42" t="s">
         <v>703</v>
       </c>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="43" t="s">
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="44" t="s">
         <v>717</v>
       </c>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="44" t="s">
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="44"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="48"/>
     </row>
     <row r="87" spans="2:19">
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="45" t="s">
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="42" t="s">
         <v>702</v>
       </c>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="43" t="s">
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="44" t="s">
         <v>718</v>
       </c>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="44" t="s">
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="48" t="s">
         <v>727</v>
       </c>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="45" t="s">
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="42" t="s">
         <v>704</v>
       </c>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="43" t="s">
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="44" t="s">
         <v>719</v>
       </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="44" t="s">
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="48" t="s">
         <v>728</v>
       </c>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="44"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
     </row>
     <row r="89" spans="2:19">
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45" t="s">
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42" t="s">
         <v>705</v>
       </c>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="43" t="s">
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="44" t="s">
         <v>720</v>
       </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="44" t="s">
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="48" t="s">
         <v>729</v>
       </c>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="44"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="48"/>
+      <c r="S89" s="48"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="42" t="s">
         <v>710</v>
       </c>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45" t="s">
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42" t="s">
         <v>706</v>
       </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="43" t="s">
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="44" t="s">
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="44"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="48"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="48"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="42" t="s">
         <v>711</v>
       </c>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45" t="s">
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="43" t="s">
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="44" t="s">
         <v>722</v>
       </c>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="44" t="s">
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="48" t="s">
         <v>731</v>
       </c>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="B81:E84"/>
-    <mergeCell ref="B85:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
     <mergeCell ref="M80:S80"/>
     <mergeCell ref="I89:L89"/>
     <mergeCell ref="I90:L90"/>
@@ -23278,6 +24623,32 @@
     <mergeCell ref="M90:S90"/>
     <mergeCell ref="M91:S91"/>
     <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="B81:E84"/>
+    <mergeCell ref="B85:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23285,6 +24656,123 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37333F5-C263-462E-8EE1-25CA0A371C97}">
+  <dimension ref="A27:B274"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>791</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123E4C0A-0413-408E-B583-6B666630A15B}">
+  <dimension ref="A2:A40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="BB48" sqref="BB48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>803</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E124F-A30A-480D-8821-ED6D950494A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
